--- a/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
+++ b/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Copeau 1 - Vulcanix" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>Tour de table des Académiciens</t>
   </si>
@@ -472,6 +472,24 @@
   </si>
   <si>
     <t>PTN</t>
+  </si>
+  <si>
+    <t>Résultats MECAmaster</t>
+  </si>
+  <si>
+    <t>Délibérations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total LAS </t>
+  </si>
+  <si>
+    <t>Total chassis</t>
+  </si>
+  <si>
+    <t>Total Motorisation</t>
+  </si>
+  <si>
+    <t>Total Elec</t>
   </si>
 </sst>
 </file>
@@ -656,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,6 +767,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1135,7 +1159,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1150,7 +1174,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
@@ -1166,7 +1190,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1182,7 +1206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>104</v>
       </c>
@@ -1198,7 +1222,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
@@ -1214,7 +1238,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -1232,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="26" t="s">
         <v>107</v>
       </c>
@@ -1248,7 +1272,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="26" t="s">
         <v>108</v>
       </c>
@@ -1264,7 +1288,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1283,7 +1307,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
@@ -1300,7 +1324,7 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="10" t="s">
         <v>116</v>
       </c>
@@ -1317,7 +1341,7 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
@@ -1334,7 +1358,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="10" t="s">
         <v>120</v>
       </c>
@@ -1366,7 +1390,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="35" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1385,7 +1409,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1425,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="29" t="s">
         <v>124</v>
       </c>
@@ -1417,7 +1441,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="29" t="s">
         <v>130</v>
       </c>
@@ -1433,7 +1457,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="37" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -1452,7 +1476,7 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="28" t="s">
         <v>135</v>
       </c>
@@ -1469,7 +1493,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="28" t="s">
         <v>132</v>
       </c>
@@ -1485,7 +1509,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -1503,7 +1527,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="26" t="s">
         <v>137</v>
       </c>
@@ -1568,8 +1592,8 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A20:A22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1581,7 +1605,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1640,7 +1664,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1658,7 +1682,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>75</v>
       </c>
@@ -1674,7 +1698,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>79</v>
       </c>
@@ -1690,7 +1714,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
@@ -1706,7 +1730,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>81</v>
       </c>
@@ -1722,7 +1746,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1740,7 +1764,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>74</v>
       </c>
@@ -1788,7 +1812,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1806,7 +1830,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
@@ -1822,7 +1846,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1862,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1878,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1872,7 +1896,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1888,7 +1912,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -1904,7 +1928,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="2" t="s">
         <v>127</v>
       </c>
@@ -1920,7 +1944,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1960,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1954,7 +1978,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1990,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1978,7 +2002,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1992,7 +2016,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2104,8 +2128,8 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2114,10 +2138,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2165,7 +2189,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2183,7 +2207,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2199,7 +2223,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2215,7 +2239,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2231,7 +2255,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2249,7 +2273,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2289,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
@@ -2281,7 +2305,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
         <v>144</v>
       </c>
@@ -2297,7 +2321,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2315,7 +2339,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2355,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="25" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2371,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="9" t="s">
         <v>146</v>
       </c>
@@ -2377,7 +2401,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2395,7 +2419,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="11" t="s">
         <v>54</v>
       </c>
@@ -2411,7 +2435,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
@@ -2427,7 +2451,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="11" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2467,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="11" t="s">
         <v>142</v>
       </c>
@@ -2459,7 +2483,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2475,7 +2499,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2493,7 +2517,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="12" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2533,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="12" t="s">
         <v>62</v>
       </c>
@@ -2525,7 +2549,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
@@ -2541,7 +2565,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
@@ -2557,7 +2581,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="12" t="s">
         <v>68</v>
       </c>
@@ -2573,7 +2597,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
@@ -2589,7 +2613,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2607,7 +2631,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="26" t="s">
         <v>136</v>
       </c>
@@ -2623,7 +2647,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="26" t="s">
         <v>137</v>
       </c>
@@ -2643,6 +2667,42 @@
       <c r="D33" s="20">
         <f>SUM(D2:D31)</f>
         <v>0.21527777777777776</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="14">
+        <f>SUM(D7:D10)</f>
+        <v>3.8194444444444448E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="14">
+        <f>SUM(D11:D14)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="27" x14ac:dyDescent="0.35">
+      <c r="C37" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="14">
+        <f>SUM(D16:D21)</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="14">
+        <f>SUM(D22:D28)</f>
+        <v>4.1666666666666671E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2664,17 +2724,17 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="1"/>
@@ -2715,7 +2775,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2733,7 +2793,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -2742,12 +2802,12 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E23" si="0">E3+D4</f>
+        <f t="shared" ref="E4:E26" si="0">E3+D4</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2763,7 +2823,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2781,7 +2841,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="10" t="s">
         <v>139</v>
       </c>
@@ -2797,25 +2857,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81944444444444431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.82291666666666652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>100</v>
@@ -2825,13 +2885,13 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.83333333333333315</v>
+        <v>0.82986111111111094</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>100</v>
@@ -2841,110 +2901,112 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>0.84374999999999978</v>
+        <v>0.84027777777777757</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D11" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0.85416666666666641</v>
+        <v>0.8506944444444442</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.86111111111111083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>0.85763888888888862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="9" t="s">
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.86458333333333304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
+      <c r="B14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>0.86458333333333304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="16">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87152777777777746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>0.87847222222222188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.8854166666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="17">
+      <c r="C16" s="6"/>
+      <c r="D16" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>0.89930555555555525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90624999999999967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
@@ -2953,17 +3015,17 @@
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>0.90624999999999967</v>
+        <v>0.90972222222222188</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="18">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
@@ -2971,10 +3033,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2985,118 +3047,159 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.92708333333333293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="18">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0.92708333333333293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="D21" s="18">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93402777777777735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D22" s="31">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" si="0"/>
-        <v>0.93055555555555514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
-      <c r="B22" s="4" t="s">
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93749999999999956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41"/>
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="19">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" si="0"/>
-        <v>0.93402777777777735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94097222222222177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="14">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="0"/>
-        <v>0.93749999999999956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" ref="E24:E25" si="1">E23+D24</f>
+        <f t="shared" si="0"/>
         <v>0.94444444444444398</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.9513888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="14">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E25" s="13">
-        <f t="shared" si="1"/>
-        <v>0.94791666666666619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D26" s="20"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95486111111111061</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="20">
-        <f>SUM(D3:D25)</f>
-        <v>0.17708333333333329</v>
+      <c r="D28" s="20">
+        <f>SUM(D3:D26)</f>
+        <v>0.18402777777777773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="14">
+        <f>SUM(D6:D12)</f>
+        <v>6.2499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C31" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="14">
+        <f>SUM(D13:D15)</f>
+        <v>2.4305555555555552E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="14">
+        <f>SUM(D17:D21)</f>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
+++ b/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Copeau 1 - Vulcanix" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
   <si>
     <t>Tour de table des Académiciens</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Total Elec</t>
+  </si>
+  <si>
+    <t>LDN / MPY</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,6 +776,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,7 +1165,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1174,7 +1180,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
@@ -1190,7 +1196,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1206,7 +1212,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="2" t="s">
         <v>104</v>
       </c>
@@ -1222,7 +1228,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
@@ -1238,7 +1244,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -1256,7 +1262,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="26" t="s">
         <v>107</v>
       </c>
@@ -1272,7 +1278,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="26" t="s">
         <v>108</v>
       </c>
@@ -1288,7 +1294,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1307,7 +1313,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="10" t="s">
         <v>115</v>
       </c>
@@ -1324,7 +1330,7 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="10" t="s">
         <v>116</v>
       </c>
@@ -1341,7 +1347,7 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
@@ -1358,7 +1364,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="10" t="s">
         <v>120</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1409,7 +1415,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="29" t="s">
         <v>124</v>
       </c>
@@ -1441,7 +1447,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="29" t="s">
         <v>130</v>
       </c>
@@ -1457,7 +1463,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -1476,7 +1482,7 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="28" t="s">
         <v>135</v>
       </c>
@@ -1493,7 +1499,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="28" t="s">
         <v>132</v>
       </c>
@@ -1509,7 +1515,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -1527,7 +1533,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="26" t="s">
         <v>137</v>
       </c>
@@ -1664,7 +1670,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1682,7 +1688,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>75</v>
       </c>
@@ -1698,7 +1704,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>79</v>
       </c>
@@ -1714,7 +1720,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
@@ -1730,7 +1736,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>81</v>
       </c>
@@ -1746,7 +1752,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1764,7 +1770,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
         <v>74</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1830,7 +1836,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
@@ -1846,7 +1852,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +1868,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1884,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1896,7 +1902,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1918,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
@@ -1928,7 +1934,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="2" t="s">
         <v>127</v>
       </c>
@@ -1944,7 +1950,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1978,7 +1984,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1996,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2002,7 +2008,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2022,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2138,10 +2144,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2189,7 +2195,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2207,7 +2213,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2218,12 +2224,12 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E31" si="0">E3+D4</f>
+        <f t="shared" ref="E4:E32" si="0">E3+D4</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2239,7 +2245,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2255,7 +2261,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2273,25 +2279,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.8159722222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
+      <c r="B9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.82291666666666652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>10</v>
@@ -2301,127 +2307,127 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" si="0"/>
-        <v>0.83680555555555536</v>
+        <v>0.82986111111111094</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.84374999999999978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="B11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="15">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.84374999999999978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="D11" s="15">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.8506944444444442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.84722222222222199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.85416666666666641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="56"/>
+      <c r="B13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
-      <c r="B13" s="25" t="s">
+      <c r="D13" s="16">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.86111111111111083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="56"/>
+      <c r="B14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.86805555555555525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
-      <c r="B14" s="9" t="s">
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87499999999999967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="56"/>
+      <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.87152777777777746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87847222222222188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="17">
+      <c r="C16" s="6"/>
+      <c r="D16" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89236111111111083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.89930555555555525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89583333333333304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>53</v>
@@ -2431,19 +2437,19 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="0"/>
-        <v>0.89930555555555525</v>
+        <v>0.90277777777777746</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="18">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
@@ -2451,12 +2457,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2467,12 +2473,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="11" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="D20" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2485,10 +2491,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="47"/>
       <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D21" s="18">
         <v>6.9444444444444441E-3</v>
@@ -2499,27 +2505,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="18">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.93402777777777735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="21">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.93055555555555514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -2529,64 +2535,64 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="0"/>
-        <v>0.93402777777777735</v>
+        <v>0.93749999999999956</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="21">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94097222222222177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="21">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94097222222222177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94791666666666619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
+      <c r="B26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="21">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94791666666666619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.95486111111111061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
+      <c r="B27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="21">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.95486111111111061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="D27" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2599,120 +2605,136 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="53"/>
       <c r="B28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.96874999999999944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="54"/>
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="21">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96874999999999944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39" t="s">
+      <c r="D29" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.97569444444444386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E29" s="14">
-        <f t="shared" si="0"/>
-        <v>0.97222222222222165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="14">
-        <v>6.9444444444444441E-3</v>
-      </c>
       <c r="E30" s="14">
         <f t="shared" si="0"/>
         <v>0.97916666666666607</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A31" s="41"/>
       <c r="B31" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98611111111111049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="14">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E31" s="14">
-        <f t="shared" si="0"/>
-        <v>0.98611111111111049</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="1" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.99305555555555491</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="20">
-        <f>SUM(D2:D31)</f>
-        <v>0.21527777777777776</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C35" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="14">
-        <f>SUM(D7:D10)</f>
-        <v>3.8194444444444448E-2</v>
+      <c r="D34" s="20">
+        <f>SUM(D2:D32)</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="14">
+        <f>SUM(D7:D11)</f>
+        <v>4.5138888888888881E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="14">
-        <f>SUM(D11:D14)</f>
+      <c r="D37" s="14">
+        <f>SUM(D12:D15)</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="C37" s="32" t="s">
+    <row r="38" spans="3:4" ht="27" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="14">
-        <f>SUM(D16:D21)</f>
+      <c r="D38" s="14">
+        <f>SUM(D17:D22)</f>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="32" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="14">
-        <f>SUM(D22:D28)</f>
+      <c r="D39" s="14">
+        <f>SUM(D23:D29)</f>
         <v>4.1666666666666671E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2724,10 +2746,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2775,7 +2797,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2793,7 +2815,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -2802,12 +2824,12 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E26" si="0">E3+D4</f>
+        <f t="shared" ref="E4:E25" si="0">E3+D4</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2823,7 +2845,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2841,7 +2863,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="10" t="s">
         <v>139</v>
       </c>
@@ -2857,25 +2879,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>41</v>
+      <c r="A8" s="50"/>
+      <c r="B8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D8" s="15">
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>0.81944444444444431</v>
+        <v>0.82291666666666652</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>100</v>
@@ -2885,13 +2907,13 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.82986111111111094</v>
+        <v>0.83333333333333315</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>100</v>
@@ -2901,112 +2923,110 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>0.84027777777777757</v>
+        <v>0.84374999999999978</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D11" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0.8506944444444442</v>
+        <v>0.85416666666666641</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1.0416666666666666E-2</v>
+      <c r="A12" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>0.86111111111111083</v>
+        <v>0.85763888888888862</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
-        <v>88</v>
-      </c>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.86458333333333304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="56"/>
+      <c r="B14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87847222222222188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.89930555555555525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>0.86458333333333304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>0.87152777777777746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
-      <c r="B15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>0.8854166666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0.90624999999999967</v>
+        <v>0.90277777777777746</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17" s="47"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
@@ -3015,17 +3035,17 @@
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>0.90972222222222188</v>
+        <v>0.90624999999999967</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="18">
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
@@ -3033,10 +3053,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="18">
         <v>6.9444444444444441E-3</v>
@@ -3047,10 +3067,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="18">
         <v>6.9444444444444441E-3</v>
@@ -3060,64 +3080,64 @@
         <v>0.92708333333333293</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="18">
-        <v>6.9444444444444441E-3</v>
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="31">
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
+        <v>0.93055555555555514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
         <v>0.93402777777777735</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="31">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="14">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>0.93749999999999956</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="19">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94097222222222177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>94</v>
-      </c>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="35"/>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="14">
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
@@ -3125,81 +3145,67 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="14">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>0.9513888888888884</v>
+        <v>0.94791666666666619</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="14">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="0"/>
-        <v>0.95486111111111061</v>
-      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D27" s="20"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="20">
-        <f>SUM(D3:D26)</f>
-        <v>0.18402777777777773</v>
+      <c r="D27" s="20">
+        <f>SUM(D3:D25)</f>
+        <v>0.17708333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="14">
+        <f>SUM(D6:D11)</f>
+        <v>5.5555555555555546E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C30" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" s="14">
-        <f>SUM(D6:D12)</f>
-        <v>6.2499999999999993E-2</v>
+        <f>SUM(D12:D14)</f>
+        <v>2.4305555555555552E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C31" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" s="14">
-        <f>SUM(D13:D15)</f>
-        <v>2.4305555555555552E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="14">
-        <f>SUM(D17:D21)</f>
+        <f>SUM(D16:D20)</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
+++ b/03_Optimus/03_Documents Projet/01_Documents Organisation/Ordre_Jour_TOPs.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13060" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOP Copeau 1 - Vulcanix" sheetId="4" r:id="rId1"/>
     <sheet name="TOP Copeau 2 - Vulcanix" sheetId="1" r:id="rId2"/>
     <sheet name="TOP Copeau 1 - Optimus" sheetId="2" r:id="rId3"/>
     <sheet name="TOP Copeau 2 - Optimus" sheetId="3" r:id="rId4"/>
+    <sheet name="Période d'essai" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="170">
   <si>
     <t>Tour de table des Académiciens</t>
   </si>
@@ -138,9 +139,6 @@
 </t>
   </si>
   <si>
-    <t>retour sur le performance</t>
-  </si>
-  <si>
     <t>NGO</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>MPL</t>
   </si>
   <si>
-    <t>Vue global LAS</t>
-  </si>
-  <si>
     <t>PCT</t>
   </si>
   <si>
@@ -168,9 +163,6 @@
     <t>Essai collage</t>
   </si>
   <si>
-    <t xml:space="preserve">Vue global Chassis </t>
-  </si>
-  <si>
     <t>RCS</t>
   </si>
   <si>
@@ -180,15 +172,9 @@
     <t>YRI</t>
   </si>
   <si>
-    <t>Châssis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pause repas </t>
   </si>
   <si>
-    <t>Vue global Motorisation</t>
-  </si>
-  <si>
     <t>CEE</t>
   </si>
   <si>
@@ -201,18 +187,12 @@
     <t>Transmission secondaire</t>
   </si>
   <si>
-    <t>LDN</t>
-  </si>
-  <si>
     <t>Réservoir</t>
   </si>
   <si>
     <t>BVL</t>
   </si>
   <si>
-    <t>Vue global Electronique</t>
-  </si>
-  <si>
     <t>Faiseaux</t>
   </si>
   <si>
@@ -444,9 +424,6 @@
     <t>Fin du TOP Copeau n°1</t>
   </si>
   <si>
-    <t>Chapes porte moyeu</t>
-  </si>
-  <si>
     <t>Position suspensions</t>
   </si>
   <si>
@@ -493,6 +470,75 @@
   </si>
   <si>
     <t>LDN / MPY</t>
+  </si>
+  <si>
+    <t>Vue globale LAS</t>
+  </si>
+  <si>
+    <t>Vue globale Motorisation</t>
+  </si>
+  <si>
+    <t>Vue globale Electronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue globale Châssis </t>
+  </si>
+  <si>
+    <t>Structure tubulaire</t>
+  </si>
+  <si>
+    <t>Retour sur les performances visées</t>
+  </si>
+  <si>
+    <t>Ouverture du Top Copeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue globale Chassis </t>
+  </si>
+  <si>
+    <t>Video d'intégration</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Point sur les démarchages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Batterie </t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>Période d'essai</t>
+  </si>
+  <si>
+    <t>Vulcanix</t>
+  </si>
+  <si>
+    <t>Optimus</t>
+  </si>
+  <si>
+    <t>Nbr WE</t>
+  </si>
+  <si>
+    <t>Différences</t>
+  </si>
+  <si>
+    <t>Durée par WE (h)</t>
+  </si>
+  <si>
+    <t>zappé</t>
+  </si>
+  <si>
+    <t>prochaine fois</t>
+  </si>
+  <si>
+    <t>fait vite fait</t>
+  </si>
+  <si>
+    <t>décallé</t>
   </si>
 </sst>
 </file>
@@ -502,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,8 +574,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,10 +733,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,9 +841,32 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -847,9 +930,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,8 +1258,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>92</v>
+      <c r="A2" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1180,9 +1273,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1196,9 +1289,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1212,9 +1305,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1228,9 +1321,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1244,11 +1337,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>110</v>
+      <c r="A7" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1262,9 +1355,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1278,9 +1371,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1294,14 +1387,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>111</v>
+      <c r="A10" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D10" s="15">
         <v>2.0833333333333332E-2</v>
@@ -1313,12 +1406,12 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D11" s="15">
         <v>1.0416666666666666E-2</v>
@@ -1330,12 +1423,12 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D12" s="15">
         <v>1.7361111111111112E-2</v>
@@ -1347,12 +1440,12 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D13" s="15">
         <v>2.0833333333333332E-2</v>
@@ -1364,12 +1457,12 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D14" s="15">
         <v>1.3888888888888888E-2</v>
@@ -1396,11 +1489,11 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>122</v>
+      <c r="A16" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>23</v>
@@ -1415,7 +1508,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1431,12 +1524,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D18" s="18">
         <v>1.0416666666666666E-2</v>
@@ -1447,12 +1540,12 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D19" s="18">
         <v>1.3888888888888888E-2</v>
@@ -1463,14 +1556,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>87</v>
+      <c r="A20" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D20" s="21">
         <v>6.9444444444444441E-3</v>
@@ -1482,12 +1575,12 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D21" s="21">
         <v>6.9444444444444441E-3</v>
@@ -1499,12 +1592,12 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D22" s="21">
         <v>1.3888888888888888E-2</v>
@@ -1515,11 +1608,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>84</v>
+      <c r="A23" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1533,9 +1626,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="14">
@@ -1549,7 +1642,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D26" s="20">
         <f>SUM(D2:D24)</f>
@@ -1611,7 +1704,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1670,11 +1763,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>11</v>
@@ -1688,9 +1781,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>12</v>
@@ -1704,9 +1797,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
@@ -1720,9 +1813,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>15</v>
@@ -1736,9 +1829,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>16</v>
@@ -1752,11 +1845,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
-        <v>72</v>
+      <c r="A9" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>23</v>
@@ -1770,9 +1863,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
@@ -1818,11 +1911,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
@@ -1836,9 +1929,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>20</v>
@@ -1852,7 +1945,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1868,7 +1961,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1884,8 +1977,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
-        <v>84</v>
+      <c r="A17" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -1902,9 +1995,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -1918,9 +2011,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1934,9 +2027,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -1950,7 +2043,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1966,14 +2059,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D22" s="14">
         <v>1.3888888888888888E-2</v>
@@ -1984,7 +2077,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2089,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2008,7 +2101,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +2115,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2128,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20">
         <f>SUM(D2:D26)</f>
@@ -2144,10 +2237,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2157,10 +2250,11 @@
     <col min="3" max="3" width="16.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="1"/>
+    <col min="6" max="6" width="17.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -2177,12 +2271,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2194,15 +2288,15 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
-        <v>93</v>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14">
         <v>6.9444444444444441E-3</v>
@@ -2211,356 +2305,407 @@
         <f>E2+D3</f>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55"/>
+      <c r="B4" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:E32" si="0">E3+D4</f>
+        <f>E2+D4</f>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.77708333333333324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <f>E3+D5</f>
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="14">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.79861111111111105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+      <c r="F5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E6" s="14">
+        <f t="shared" ref="E6:E34" si="0">E5+D6</f>
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.77916666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>0.80555555555555547</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="F7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>0.80902777777777768</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
-      <c r="B8" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="F8" s="69">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>0.8159722222222221</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.82986111111111094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
+      <c r="F9" s="69">
+        <v>0.78611111111111109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="D10" s="15">
-        <v>1.3888888888888888E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.84374999999999978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>145</v>
+        <f t="shared" ref="E10:E13" si="1">E9+D10</f>
+        <v>0.82291666666666652</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.79027777777777775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.8506944444444442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <f t="shared" si="1"/>
+        <v>0.82986111111111094</v>
+      </c>
+      <c r="F11" s="69">
+        <v>0.80694444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
+      <c r="B12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.84374999999999978</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="62"/>
+      <c r="B13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.85763888888888862</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="69">
+        <v>0.87361111111111101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.86111111111111083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D15" s="16">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.86805555555555525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="67"/>
+      <c r="B16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.88194444444444409</v>
+      </c>
+      <c r="G16" s="69">
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.8854166666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="16">
+      <c r="C18" s="6"/>
+      <c r="D18" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.90624999999999967</v>
+      </c>
+      <c r="G18" s="70">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="9" t="s">
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.90972222222222188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="16">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.86111111111111083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="25" t="s">
+      <c r="D20" s="18">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.91319444444444409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
+      <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.87499999999999967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="16">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="0"/>
-        <v>0.87847222222222188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="17">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89930555555555525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.90624999999999967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="18">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.91319444444444409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="18">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.92013888888888851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D21" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="0"/>
-        <v>0.92708333333333293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="48"/>
-      <c r="B22" s="34" t="s">
-        <v>56</v>
+        <v>0.92013888888888851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="58"/>
+      <c r="B22" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="D22" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="0"/>
+        <v>0.92708333333333293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="58"/>
+      <c r="B23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="18">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
         <v>0.93402777777777735</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="21">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.93749999999999956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="53"/>
-      <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="21">
-        <v>3.472222222222222E-3</v>
+      <c r="G23" s="69">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="59"/>
+      <c r="B24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="18">
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="0"/>
         <v>0.94097222222222177</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="53"/>
+      <c r="G24" s="69">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="63" t="s">
+        <v>83</v>
+      </c>
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D25" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2569,14 +2714,17 @@
         <f t="shared" si="0"/>
         <v>0.94791666666666619</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="53"/>
+      <c r="F25" s="69">
+        <v>0.80763888888888891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="64"/>
       <c r="B26" s="12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D26" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2585,14 +2733,17 @@
         <f t="shared" si="0"/>
         <v>0.95486111111111061</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
+      <c r="F26" s="69">
+        <v>0.80972222222222223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="64"/>
       <c r="B27" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D27" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2601,14 +2752,17 @@
         <f t="shared" si="0"/>
         <v>0.96180555555555503</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="53"/>
+      <c r="F27" s="69">
+        <v>0.81319444444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="64"/>
       <c r="B28" s="12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2617,14 +2771,17 @@
         <f t="shared" si="0"/>
         <v>0.96874999999999944</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
+      <c r="F28" s="69">
+        <v>0.82013888888888886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="64"/>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D29" s="21">
         <v>6.9444444444444441E-3</v>
@@ -2633,108 +2790,152 @@
         <f t="shared" si="0"/>
         <v>0.97569444444444386</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="F29" s="69">
+        <v>0.8256944444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="64"/>
+      <c r="B30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98263888888888828</v>
+      </c>
+      <c r="F30" s="69">
+        <v>0.82986111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="65"/>
+      <c r="B31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.9895833333333327</v>
+      </c>
+      <c r="F31" s="69">
+        <v>0.83194444444444438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="19">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E30" s="14">
-        <f t="shared" si="0"/>
-        <v>0.97916666666666607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A33" s="52"/>
+      <c r="B33" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E31" s="14">
-        <f t="shared" si="0"/>
-        <v>0.98611111111111049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="14">
+      <c r="E33" s="14">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
+      <c r="B34" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E32" s="14">
-        <f t="shared" si="0"/>
-        <v>0.99305555555555491</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="20">
-        <f>SUM(D2:D32)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C36" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="14">
-        <f>SUM(D7:D11)</f>
-        <v>4.5138888888888881E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="14">
-        <f>SUM(D12:D15)</f>
+      <c r="E34" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0069444444444438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="20">
+        <f>SUM(D2:D34)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="14">
+        <f>SUM(D8:D13)</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="14">
+        <f>SUM(D14:D17)</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="C38" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="14">
-        <f>SUM(D17:D22)</f>
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="C40" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="14">
+        <f>SUM(D19:D24)</f>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="14">
-        <f>SUM(D23:D29)</f>
-        <v>4.1666666666666671E-2</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="14">
+        <f>SUM(D25:D31)</f>
+        <v>4.8611111111111119E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2746,10 +2947,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2781,7 +2982,7 @@
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -2797,14 +2998,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
-        <v>93</v>
+      <c r="A3" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="14">
         <v>6.9444444444444441E-3</v>
@@ -2815,26 +3016,26 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E25" si="0">E3+D4</f>
+        <f t="shared" ref="E4:E23" si="0">E3+D4</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="14">
         <v>6.9444444444444441E-3</v>
@@ -2845,14 +3046,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
-        <v>86</v>
+      <c r="A6" s="60" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="15">
         <v>3.472222222222222E-3</v>
@@ -2863,12 +3064,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15">
         <v>1.0416666666666666E-2</v>
@@ -2879,12 +3080,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D8" s="15">
         <v>1.0416666666666666E-2</v>
@@ -2895,12 +3096,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D9" s="15">
         <v>1.0416666666666666E-2</v>
@@ -2911,12 +3112,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D10" s="15">
         <v>1.0416666666666666E-2</v>
@@ -2927,12 +3128,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D11" s="15">
         <v>1.0416666666666666E-2</v>
@@ -2943,14 +3144,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
-        <v>88</v>
+      <c r="A12" s="66" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16">
         <v>3.472222222222222E-3</v>
@@ -2961,12 +3162,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="16">
         <v>6.9444444444444441E-3</v>
@@ -2977,149 +3178,153 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="0"/>
+        <f>E13+D14</f>
         <v>0.87847222222222188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="17">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E15" s="13">
+        <f>E14+D15</f>
+        <v>0.88194444444444409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="17">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
+      <c r="E16" s="13">
+        <f>E14+D16</f>
         <v>0.89930555555555525</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777746</v>
-      </c>
-    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
+        <v>0.90277777777777746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="31">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
         <v>0.90624999999999967</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18">
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52"/>
+      <c r="B19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="31">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90972222222222188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91319444444444409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="14">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.9166666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="46"/>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>0.91319444444444409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="18">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>0.92013888888888851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="48"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="18">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0.92708333333333293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="31">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" si="0"/>
-        <v>0.93055555555555514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="19">
-        <v>3.472222222222222E-3</v>
-      </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>0.93402777777777735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
-        <v>94</v>
-      </c>
+        <v>0.92361111111111072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="46"/>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="14">
@@ -3127,85 +3332,175 @@
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.93749999999999956</v>
+        <v>0.92708333333333293</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="14">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E24" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444398</v>
-      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="14">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="0"/>
-        <v>0.94791666666666619</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20">
+        <f>SUM(D3:D23)</f>
+        <v>0.15972222222222215</v>
+      </c>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D26" s="20"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="20">
-        <f>SUM(D3:D25)</f>
-        <v>0.17708333333333329</v>
+      <c r="C27" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="14">
+        <f>SUM(D6:D11)</f>
+        <v>5.5555555555555546E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="14">
+        <f>SUM(D12:D14)</f>
+        <v>2.4305555555555552E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" s="32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D29" s="14">
-        <f>SUM(D6:D11)</f>
-        <v>5.5555555555555546E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C30" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="14">
-        <f>SUM(D12:D14)</f>
-        <v>2.4305555555555552E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="14">
-        <f>SUM(D16:D20)</f>
-        <v>2.7777777777777776E-2</v>
+        <f>SUM(D17:D17)</f>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="41">
+        <v>43246</v>
+      </c>
+      <c r="C3" s="41">
+        <v>43182</v>
+      </c>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="41">
+        <v>43288</v>
+      </c>
+      <c r="C4" s="41">
+        <v>43288</v>
+      </c>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="40">
+        <v>7</v>
+      </c>
+      <c r="C5" s="40">
+        <v>16</v>
+      </c>
+      <c r="D5" s="42">
+        <f>(C5-B5)/C5</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="40">
+        <v>6</v>
+      </c>
+      <c r="C6" s="40">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" ref="D6:D7" si="0">(C6-B6)/C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B5*B6</f>
+        <v>42</v>
+      </c>
+      <c r="C7" s="40">
+        <f>C5*C6</f>
+        <v>96</v>
+      </c>
+      <c r="D7" s="42">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
